--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Weclapp_EN.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Weclapp_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1612439-C50F-432E-976A-C97140B5107E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341044BA-952B-4530-A7EF-B163319D45F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1242,6 +1242,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1259,18 +1271,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2013,8 +2013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:BS39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2061,42 +2061,42 @@
         <v>2</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="O3" s="69" t="s">
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="O3" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="S3" s="69" t="s">
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="S3" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="W3" s="69" t="s">
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="W3" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="AA3" s="69" t="s">
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="AA3" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AE3" s="70" t="s">
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AE3" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="72"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="66"/>
     </row>
     <row r="4" spans="1:71" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:71" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3684,9 +3684,9 @@
       <c r="A33" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
       <c r="E33" s="41"/>
       <c r="G33" s="48"/>
       <c r="H33" s="23"/>
@@ -3714,11 +3714,11 @@
       <c r="A34" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
       <c r="E34" s="41"/>
       <c r="G34" s="48"/>
       <c r="H34" s="23"/>
@@ -3746,11 +3746,11 @@
       <c r="A35" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="65"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
       <c r="E35" s="41"/>
       <c r="G35" s="48"/>
       <c r="H35" s="23"/>
@@ -3776,9 +3776,9 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="41"/>
       <c r="G36" s="48"/>
       <c r="H36" s="23"/>
@@ -3804,9 +3804,9 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="69"/>
       <c r="E37" s="41"/>
       <c r="G37" s="48"/>
       <c r="H37" s="23"/>
@@ -3832,9 +3832,9 @@
     </row>
     <row r="38" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="42"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="68"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="43"/>
       <c r="G38" s="50"/>
       <c r="H38" s="51"/>
@@ -3865,6 +3865,12 @@
     <protectedRange sqref="A33:E38 G33:I38 K33:M38 O33:Q38 S33:U38 W33:Y38 AA33:AC38 AE33:AG38" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
@@ -3872,12 +3878,6 @@
     <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <conditionalFormatting sqref="A30:E31 AE10:AO15 B9:E29 AE23:AO31 AE17:AO21 AE6:AG29 G6:I31 K30:M31 O30:Q31">
     <cfRule type="expression" dxfId="23" priority="147">

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Weclapp_EN.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Weclapp_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341044BA-952B-4530-A7EF-B163319D45F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C39827-2F12-4810-A4ED-836FBD9C1470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -1242,18 +1242,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1271,6 +1259,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2014,7 +2014,7 @@
   <dimension ref="A1:BS39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2061,42 +2061,42 @@
         <v>2</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="63" t="s">
+      <c r="K3" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="O3" s="63" t="s">
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="O3" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="S3" s="63" t="s">
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="S3" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="W3" s="63" t="s">
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="W3" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="AA3" s="63" t="s">
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="AA3" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AE3" s="64" t="s">
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AE3" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="66"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="72"/>
     </row>
     <row r="4" spans="1:71" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:71" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3684,9 +3684,9 @@
       <c r="A33" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="41"/>
       <c r="G33" s="48"/>
       <c r="H33" s="23"/>
@@ -3714,11 +3714,11 @@
       <c r="A34" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="69"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="41"/>
       <c r="G34" s="48"/>
       <c r="H34" s="23"/>
@@ -3746,11 +3746,11 @@
       <c r="A35" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="69"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="41"/>
       <c r="G35" s="48"/>
       <c r="H35" s="23"/>
@@ -3776,9 +3776,9 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="69"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="65"/>
       <c r="E36" s="41"/>
       <c r="G36" s="48"/>
       <c r="H36" s="23"/>
@@ -3804,9 +3804,9 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="69"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="65"/>
       <c r="E37" s="41"/>
       <c r="G37" s="48"/>
       <c r="H37" s="23"/>
@@ -3832,9 +3832,9 @@
     </row>
     <row r="38" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="42"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="72"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
       <c r="E38" s="43"/>
       <c r="G38" s="50"/>
       <c r="H38" s="51"/>
@@ -3865,12 +3865,6 @@
     <protectedRange sqref="A33:E38 G33:I38 K33:M38 O33:Q38 S33:U38 W33:Y38 AA33:AC38 AE33:AG38" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
@@ -3878,6 +3872,12 @@
     <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <conditionalFormatting sqref="A30:E31 AE10:AO15 B9:E29 AE23:AO31 AE17:AO21 AE6:AG29 G6:I31 K30:M31 O30:Q31">
     <cfRule type="expression" dxfId="23" priority="147">
@@ -3975,12 +3975,15 @@
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D30" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I30 M6:M30 Q6:Q30 U6:U30 Y6:Y30 AC6:AC30 AG5:AG30 AC33:AC38 AG33:AG38 Y33:Y38 U33:U38 Q33:Q38 M33:M38 I33:I38" xr:uid="{8768F31A-EC0B-42AA-BE24-FCAAC254A640}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG5" xr:uid="{8768F31A-EC0B-42AA-BE24-FCAAC254A640}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I30 M6:M30 Q6:Q30 U6:U30 Y6:Y30 AC6:AC30 AG6:AG30 AG33:AG38 AC33:AC38 Y33:Y38 U33:U38 Q33:Q38 M33:M37 I33:I38 M38" xr:uid="{8719B98D-C377-4D2F-8F33-856C97B950E6}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
